--- a/Active Projects/Project VRS/VR Suit Components List.xlsx
+++ b/Active Projects/Project VRS/VR Suit Components List.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27630" windowHeight="11835"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Component</t>
   </si>
@@ -30,17 +43,20 @@
   <si>
     <t>Motor</t>
   </si>
+  <si>
+    <t>RPi Pico</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,22 +67,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,11 +91,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,47 +130,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,17 +183,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,13 +198,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,187 +220,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,15 +429,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -433,6 +440,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,153 +516,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="19">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -655,52 +674,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -971,47 +990,132 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="9.28571428571429" customWidth="1"/>
+    <col min="1" max="1" width="12.283185840708" customWidth="1"/>
+    <col min="2" max="2" width="10.5752212389381" customWidth="1"/>
+    <col min="3" max="3" width="9.28318584070797" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="15" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>19.95</v>
       </c>
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <f>SUM(B2*C2)</f>
         <v>1995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.95</v>
+      </c>
+      <c r="C3">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D13" si="0">SUM(B3*C3)</f>
+        <v>304.3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="2"/>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="2"/>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="2"/>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="2"/>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2"/>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="2"/>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2"/>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2"/>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
